--- a/biology/Botanique/Poa_affinis/Poa_affinis.xlsx
+++ b/biology/Botanique/Poa_affinis/Poa_affinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poa affinis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Australie.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Poa affinis est une plante herbacée vivace, avec parfois des rhizomes ou des stolons. Les tiges (chaumes) sont glabres, faiblement ramifiées, et peuvent atteindre de 40 à 120 cm de haut. Les feuilles, principalement basales, ont un limbe plat, de 10 à 30 cm de long sur 1 à 5 mm de large. Les gaines foliaires sont lisses ou ruguleuss, glabres en surface. La ligule membraneuse, parfois ciliée, est tronquée ou obtuse, de 1 à 2 mm de long, velue sur la face abaxiale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Poa affinis est une plante herbacée vivace, avec parfois des rhizomes ou des stolons. Les tiges (chaumes) sont glabres, faiblement ramifiées, et peuvent atteindre de 40 à 120 cm de haut. Les feuilles, principalement basales, ont un limbe plat, de 10 à 30 cm de long sur 1 à 5 mm de large. Les gaines foliaires sont lisses ou ruguleuss, glabres en surface. La ligule membraneuse, parfois ciliée, est tronquée ou obtuse, de 1 à 2 mm de long, velue sur la face abaxiale.
 L'inflorescence composée est une panicule de forme générale lancéolée, de 10 à 22 cm de long.
 Les épillets, pédicellés, de forme lancéolée, comprimés latéralement, longs de 4 à 6 mm, comptent de 2 à 7 fleurons, dont au moins deux fleurons fertiles (de 3 à 5 en général). Les fleurons situés à l'apex sont réduits.
 Les épillets sont sous-tendus par deux glumes semblables, ovales, membraneuses et carénées.La glume supérieure compte 3 nervures.
-Les fleurons fertiles sont pourvus de deux lodicules et comptent trois anthères. La lemme supérieure, de 3 mm de long environ, est carénée et présente cinq nervures[2].
-Le fruit est un caryopse au péricarpe adhérent et présente un hile punctiforme[3].
+Les fleurons fertiles sont pourvus de deux lodicules et comptent trois anthères. La lemme supérieure, de 3 mm de long environ, est carénée et présente cinq nervures.
+Le fruit est un caryopse au péricarpe adhérent et présente un hile punctiforme.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Poa affinis est une espèce endémique de l'Australie qui se rencontre seulement dans les Nouvelle-Galles du Sud, près de Sydney et dans les Montagnes Bleues. Cette plante préfère les coteaux ombragés et les sous-bois des forêts, principalement les sols de grès[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poa affinis est une espèce endémique de l'Australie qui se rencontre seulement dans les Nouvelle-Galles du Sud, près de Sydney et dans les Montagnes Bleues. Cette plante préfère les coteaux ombragés et les sous-bois des forêts, principalement les sols de grès.
 </t>
         </is>
       </c>
@@ -580,11 +596,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonyme
-Poa caespitosa var. affinis (R.Br.) Benth.
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poa caespitosa var. affinis (R.Br.) Benth.
 Cette espèce ne doit pas être confondue avec Poa affinis Salzm. ex Steud., qui est un synonyme d'Eragrostis rufescens Schult.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (7 octobre 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Poa_affinis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Poa_affinis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Poa affinis subsp. affinis
 variété Poa affinis var. affinis
 variété Poa affinis var. agrostoidea Hook. f.
